--- a/biology/Botanique/Fouquieriaceae/Fouquieriaceae.xlsx
+++ b/biology/Botanique/Fouquieriaceae/Fouquieriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fouquieriaceae sont une petite famille de plantes à fleurs dicotylédones de l'ordre des Ericales, selon la classification phylogénétique. Selon Watson &amp; Dallwitz, elle comprend 11 espèces réparties en un à deux genres.
 Ce sont des petits arbres ou des arbustes, plus ou moins cactoïdes, épineux, succulents, des zones arides, des régions subtropicales d'Amérique du Nord et d'Amérique centrale.
@@ -514,15 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-Le nom vient du genre type Fouquieria, nommé en hommage au médecin français Pierre Fouquier (1776–1850)[1]. Le genre a été décrit pour la première fois en 1823 par le botaniste allemand Karl Kunth (1788-1850) [2].
-Noms vernaculaires
-Le nom commun ocotillo du Fouquieria splendens, qui est le nom mexicain du « pin ocote »[3], vient du mot nahuatl (aztèque) ocotl, torche[4] et du suffixe espagnol -illo, petit, littéralement « petite torche », en référence à l'aspect flamboyant des rameaux fleuris.
-Le nom « moelhok » est celui utilisé par des Pimas peuple nord-amérindien du Mexique[1].
-Un grand nombre de noms vernaculaires, notamment anglo-américains, sont donnés à cet arbre, faisant référence à ses différentes propriétés :
-La luxuriance rouge des fleurs : flaming sword	(épée enflammée), candle flower (fleur-bougie), desert coral (corail du désert), wolf's candles (bougies de loup) ;
-La finesse et la torsion des branches :	slimwood (bois fin), coach-whip (fouet d’entraîneur), Joseph's staff	(bâton de Joseph), Jacob's staff (baton de Jacob), arbre serpent[5] ;
-Les épines qui hérissent la plante : Jacob cactus (cactus de Jacob), vine cactus (cactus vigne).</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Fouquieria, nommé en hommage au médecin français Pierre Fouquier (1776–1850). Le genre a été décrit pour la première fois en 1823 par le botaniste allemand Karl Kunth (1788-1850) .
+</t>
         </is>
       </c>
     </row>
@@ -547,13 +558,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon le Angiosperm Phylogeny Website le genre Idria est maintenant incorporé dans le genre Fouquieria.
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom commun ocotillo du Fouquieria splendens, qui est le nom mexicain du « pin ocote », vient du mot nahuatl (aztèque) ocotl, torche et du suffixe espagnol -illo, petit, littéralement « petite torche », en référence à l'aspect flamboyant des rameaux fleuris.
+Le nom « moelhok » est celui utilisé par des Pimas peuple nord-amérindien du Mexique.
+Un grand nombre de noms vernaculaires, notamment anglo-américains, sont donnés à cet arbre, faisant référence à ses différentes propriétés :
+La luxuriance rouge des fleurs : flaming sword	(épée enflammée), candle flower (fleur-bougie), desert coral (corail du désert), wolf's candles (bougies de loup) ;
+La finesse et la torsion des branches :	slimwood (bois fin), coach-whip (fouet d’entraîneur), Joseph's staff	(bâton de Joseph), Jacob's staff (baton de Jacob), arbre serpent ;
+Les épines qui hérissent la plante : Jacob cactus (cactus de Jacob), vine cactus (cactus vigne).</t>
         </is>
       </c>
     </row>
@@ -578,16 +599,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste des genres</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[6], Angiosperm Phylogeny Website                        (12 nov. 2015)[7] et ITIS      (12 nov. 2015)[8] :
-genre Fouquieria Kunth
-Selon DELTA Angio           (12 nov. 2015)[9] :
-genre Fouquieria
-genre Idria</t>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Angiosperm Phylogeny Website le genre Idria est maintenant incorporé dans le genre Fouquieria.
+</t>
         </is>
       </c>
     </row>
@@ -612,12 +632,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015), Angiosperm Phylogeny Website                        (12 nov. 2015) et ITIS      (12 nov. 2015) :
+genre Fouquieria Kunth
+Selon DELTA Angio           (12 nov. 2015) :
+genre Fouquieria
+genre Idria</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fouquieriaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fouquieriaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 Jun 2010)[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 Jun 2010) :
 genre Fouquieria
 Fouquieria burragei
 Fouquieria columnaris
